--- a/Data/Source_data_Fig_6.xlsx
+++ b/Data/Source_data_Fig_6.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nyulangone-my.sharepoint.com/personal/yuanhao_wu_nyulangone_org/Documents/Prestim_fMRI_Wu_2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yh520/NatCommun_Wu2024/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="11_73EA732B6811256EDC0D35A1C0AED614399A2FA6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5828D7EB-9EB5-1241-BC6F-4BE17CD94757}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A16360-7DDC-1D48-A9A0-532ED75D09BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35520" yWindow="-8320" windowWidth="24500" windowHeight="17420" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Visual Network" sheetId="2" r:id="rId1"/>
@@ -36,19 +36,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="5">
   <si>
     <t>Sub ID</t>
   </si>
   <si>
     <t>Trial group</t>
   </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -79,6 +88,18 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -88,7 +109,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -134,11 +155,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -172,6 +206,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -187,10 +228,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -478,547 +515,626 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B2" sqref="B1:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11"/>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
-    </row>
-    <row r="2" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
-      <c r="B2" s="2">
+      <c r="B2" s="14"/>
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>2</v>
       </c>
-      <c r="D2" s="2">
-        <v>3</v>
-      </c>
       <c r="E2" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
         <v>0.33130902051925659</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>0.35995090007781982</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>0.36674726009368902</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>0.37026917934417719</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>0.37213948369026179</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
         <v>0.40878897905349731</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>0.36558085680007929</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>0.35074123740196228</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>0.35028699040412897</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>0.38716548681259161</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
         <v>0.48633256554603582</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>0.48233294486999512</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>0.47450768947601318</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>0.47077929973602289</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>0.47425952553749079</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
         <v>0.58904653787612915</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>0.58205783367156982</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>0.55770796537399292</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>0.53260523080825806</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>0.51636022329330444</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>8</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
         <v>0.55753964185714722</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>0.56066644191741943</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>0.56620252132415771</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>0.55318170785903931</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>0.49852076172828669</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>9</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
         <v>0.70804017782211304</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>0.72156953811645508</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>0.72368705272674561</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>0.71089553833007812</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>0.67774665355682373</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>11</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
         <v>0.5252223014831543</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>0.52308225631713867</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>0.48710033297538757</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>0.5072900652885437</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>0.50253415107727051</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>13</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
         <v>0.57004678249359131</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>0.58250069618225098</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>0.58382940292358398</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>0.58083546161651611</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>0.55778771638870239</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>15</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
         <v>0.3484799861907959</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>0.37041169404983521</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>0.37652355432510382</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>0.37898597121238708</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>0.38670986890792852</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>16</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1">
         <v>0.69134426116943359</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>0.69082158803939819</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>0.69164538383483887</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>0.69793438911437988</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>0.68658769130706787</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>18</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1">
         <v>0.52820295095443726</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>0.53263658285140991</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>0.52627444267272949</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>0.52202624082565308</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>0.51414573192596436</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>19</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
         <v>0.42335423827171331</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D14" s="1">
         <v>0.40328267216682429</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>0.37915429472923279</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>0.35128793120384222</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>0.33180978894233698</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>20</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
         <v>0.35875070095062261</v>
       </c>
-      <c r="C15" s="1">
+      <c r="D15" s="1">
         <v>0.36415815353393549</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>0.37036505341529852</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>0.36248740553855902</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>0.33297106623649603</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>22</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
         <v>0.59646046161651611</v>
       </c>
-      <c r="C16" s="1">
+      <c r="D16" s="1">
         <v>0.58466196060180664</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
         <v>0.58326244354248047</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>0.58798366785049438</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>0.57818698883056641</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>25</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1">
         <v>0.38515093922615051</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D17" s="1">
         <v>0.37172263860702509</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>0.37401682138442988</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>0.35366174578666693</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>0.34878119826316828</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>26</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1">
         <v>0.67099809646606445</v>
       </c>
-      <c r="C18" s="1">
+      <c r="D18" s="1">
         <v>0.66315054893493652</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
         <v>0.66358727216720581</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>0.65872812271118164</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>0.64912843704223633</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>29</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1">
         <v>0.60893207788467407</v>
       </c>
-      <c r="C19" s="1">
+      <c r="D19" s="1">
         <v>0.61042904853820801</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <v>0.60967618227005005</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>0.60988873243331909</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>0.61662948131561279</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>30</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1">
         <v>0.61133253574371338</v>
       </c>
-      <c r="C20" s="1">
+      <c r="D20" s="1">
         <v>0.57943594455718994</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E20" s="1">
         <v>0.56202167272567749</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>0.54924887418746948</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <v>0.54518318176269531</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>31</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1">
         <v>0.68998903036117554</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D21" s="1">
         <v>0.68085664510726929</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E21" s="1">
         <v>0.68279653787612915</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>0.68261939287185669</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>0.69429391622543335</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>32</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1">
         <v>0.66380047798156738</v>
       </c>
-      <c r="C22" s="1">
+      <c r="D22" s="1">
         <v>0.65742164850234985</v>
       </c>
-      <c r="D22" s="1">
+      <c r="E22" s="1">
         <v>0.64709150791168213</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <v>0.64348745346069336</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <v>0.663463294506073</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>33</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1">
         <v>0.47513705492019648</v>
       </c>
-      <c r="C23" s="1">
+      <c r="D23" s="1">
         <v>0.50275087356567383</v>
       </c>
-      <c r="D23" s="1">
+      <c r="E23" s="1">
         <v>0.5127265453338623</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="1">
         <v>0.52776616811752319</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <v>0.52600729465484619</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>34</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1">
         <v>0.46873223781585688</v>
       </c>
-      <c r="C24" s="1">
+      <c r="D24" s="1">
         <v>0.48394981026649481</v>
       </c>
-      <c r="D24" s="1">
+      <c r="E24" s="1">
         <v>0.48193910717964172</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F24" s="1">
         <v>0.45967969298362732</v>
       </c>
-      <c r="F24" s="1">
+      <c r="G24" s="1">
         <v>0.42514348030090332</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>35</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1">
         <v>0.49339216947555542</v>
       </c>
-      <c r="C25" s="1">
+      <c r="D25" s="1">
         <v>0.4852430522441864</v>
       </c>
-      <c r="D25" s="1">
+      <c r="E25" s="1">
         <v>0.47385203838348389</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="1">
         <v>0.47363060712814331</v>
       </c>
-      <c r="F25" s="1">
+      <c r="G25" s="1">
         <v>0.47665992379188538</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>37</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1">
         <v>0.41079851984977722</v>
       </c>
-      <c r="C26" s="1">
+      <c r="D26" s="1">
         <v>0.41404649615287781</v>
       </c>
-      <c r="D26" s="1">
+      <c r="E26" s="1">
         <v>0.41246882081031799</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F26" s="1">
         <v>0.40062865614891052</v>
       </c>
-      <c r="F26" s="1">
+      <c r="G26" s="1">
         <v>0.40695995092391968</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>38</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1">
         <v>0.52079898118972778</v>
       </c>
-      <c r="C27" s="1">
+      <c r="D27" s="1">
         <v>0.53311306238174438</v>
       </c>
-      <c r="D27" s="1">
+      <c r="E27" s="1">
         <v>0.52993905544281006</v>
       </c>
-      <c r="E27" s="1">
+      <c r="F27" s="1">
         <v>0.52634787559509277</v>
       </c>
-      <c r="F27" s="1">
+      <c r="G27" s="1">
         <v>0.51314258575439453</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="C1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1026,547 +1142,626 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="B2" sqref="B1:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
-    </row>
-    <row r="2" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
-      <c r="B2" s="8">
+      <c r="B2" s="14"/>
+      <c r="C2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="8">
+      <c r="D2" s="8">
         <v>2</v>
       </c>
-      <c r="D2" s="8">
-        <v>3</v>
-      </c>
       <c r="E2" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" s="8">
+        <v>4</v>
+      </c>
+      <c r="G2" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>0.33040690422058111</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.30454590916633612</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.26785218715667719</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.278919517993927</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.29557681083679199</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
         <v>0.40562805533409119</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.36678114533424377</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.34528118371963501</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.34287390112876892</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.35141748189926147</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>0.48823493719100952</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.48758292198181152</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.47218289971351618</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.46625825762748718</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.47410339117050171</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>0.51815563440322876</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.55174750089645386</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.55398303270339966</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.57236117124557495</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.56174361705780029</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
         <v>0.56125956773757935</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.56298846006393433</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.55303663015365601</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.54204905033111572</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.51217204332351685</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>9</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
         <v>0.69356375932693481</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.71105313301086426</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.70656734704971313</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.70903956890106201</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.70342928171157837</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>11</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
         <v>0.54594558477401733</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.52044034004211426</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.52224165201187134</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.51066887378692627</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.4926033616065979</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>13</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
         <v>0.54457896947860718</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.57918930053710938</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.58840024471282959</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.59076547622680664</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.56843096017837524</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>15</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
         <v>0.35830980539321899</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.36463639140129089</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.36395400762557978</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.37355503439903259</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.34902328252792358</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>16</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
         <v>0.68372946977615356</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.68285536766052246</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.68170756101608276</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.69729679822921753</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.71155697107315063</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>18</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
         <v>0.51002717018127441</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.52573090791702271</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.52902483940124512</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.52693992853164673</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.53328025341033936</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>19</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14">
         <v>0.42193713784217829</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.39615508913993841</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.37136203050613398</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>0.3543679416179657</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.34434667229652399</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>20</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15">
         <v>0.32139056921005249</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.33451378345489502</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.33326378464698792</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.36431574821472168</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.35651507973670959</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>22</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16">
         <v>0.57238632440567017</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.57866585254669189</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.58900159597396851</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.5900234580039978</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.59662556648254395</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>25</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17">
         <v>0.37192690372467041</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.36190760135650629</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.364594966173172</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0.372071772813797</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.35300993919372559</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>26</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18">
         <v>0.66463637351989746</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.66254675388336182</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.66433149576187134</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.65878981351852417</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.65448492765426636</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>29</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19">
         <v>0.61220496892929077</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.61000066995620728</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.60942888259887695</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.60893994569778442</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.61498105525970459</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>30</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
         <v>0.57987767457962036</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.57256823778152466</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.55318492650985718</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.55527752637863159</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.58359330892562866</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>31</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21">
         <v>0.67490315437316895</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.68384665250778198</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.68902236223220825</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.69240260124206543</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.68966633081436157</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>32</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22">
         <v>0.64238882064819336</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.65418076515197754</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.65611642599105835</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.65883606672286987</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.66398513317108154</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>33</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23">
         <v>0.47730022668838501</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.50636732578277588</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.51855713129043579</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>0.51757311820983887</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.52455073595046997</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>34</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24">
         <v>0.45180320739746088</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.46291601657867432</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.46410104632377619</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>0.46557611227035522</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.47504809498786932</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>35</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25">
         <v>0.47621652483940119</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>0.48454487323760992</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0.48626032471656799</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>0.48292067646980291</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>0.47283542156219482</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>37</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26">
         <v>0.44419550895690918</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>0.42090493440628052</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>0.41145035624504089</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>0.39592975378036499</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>0.37203359603881841</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>38</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27">
         <v>0.52250725030899048</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>0.51947426795959473</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>0.52775293588638306</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>0.53121685981750488</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>0.52404862642288208</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="C1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1574,547 +1769,626 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B2" sqref="B1:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
-      <c r="B2" s="8">
+      <c r="B2" s="14"/>
+      <c r="C2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="8">
+      <c r="D2" s="8">
         <v>2</v>
       </c>
-      <c r="D2" s="8">
-        <v>3</v>
-      </c>
       <c r="E2" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" s="8">
+        <v>4</v>
+      </c>
+      <c r="G2" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>0.3383476734161377</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.35111844539642328</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.36794376373291021</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.38212481141090388</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.36104679107666021</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
         <v>0.34526818990707397</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.35776296257972717</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.36193239688873291</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.38082981109619141</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.41719901561737061</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>0.48057016730308533</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.4875510036945343</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.48514506220817571</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.47984105348587042</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.45578154921531677</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>0.49225357174873352</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.52888959646224976</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.55728709697723389</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.58907479047775269</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.61027264595031738</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
         <v>0.51941162347793579</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.54589533805847168</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.5491214394569397</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.55129045248031616</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.57039225101470947</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>9</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
         <v>0.6754230260848999</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.71584481000900269</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.72099286317825317</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.720173180103302</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.70956647396087646</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>11</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
         <v>0.55284756422042847</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.529823899269104</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.51873254776000977</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.50093132257461548</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.49368831515312189</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>13</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
         <v>0.56220835447311401</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.56898880004882812</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.58131015300750732</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.58448165655136108</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.57801109552383423</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>15</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
         <v>0.35033899545669561</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.3604731559753418</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.37323197722434998</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.38291046023368841</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.39415645599365229</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>16</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
         <v>0.66710406541824341</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.68666154146194458</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.69697797298431396</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.70266473293304443</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.70492500066757202</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>18</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
         <v>0.48760569095611572</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.51272237300872803</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.52985566854476929</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.54173958301544189</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.55307674407958984</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>19</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14">
         <v>0.33566635847091669</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.36255106329917908</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.38535287976264948</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>0.40146547555923462</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.40385317802429199</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>20</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15">
         <v>0.3240545392036438</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.35063400864601141</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.36680716276168818</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.36935785412788391</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.3778788149356842</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>22</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16">
         <v>0.59935480356216431</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.59640198945999146</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.58635902404785156</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.57622486352920532</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.57221490144729614</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>25</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17">
         <v>0.35916081070899958</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.3709900975227356</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.36552199721336359</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0.37051621079444891</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.36714419722557068</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>26</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18">
         <v>0.66324007511138916</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.66839826107025146</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.66694003343582153</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.66453409194946289</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.64244318008422852</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>29</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19">
         <v>0.61495697498321533</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.60553371906280518</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.60473167896270752</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.60761153697967529</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.62272161245346069</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>30</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
         <v>0.58340620994567871</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.57593315839767456</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.56585371494293213</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.56053149700164795</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.56149750947952271</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>31</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21">
         <v>0.68153977394104004</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.6780584454536438</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.6797717809677124</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.6885753870010376</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.70261013507843018</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>32</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22">
         <v>0.62812620401382446</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.65494722127914429</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.66012018918991089</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.66080689430236816</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.67158418893814087</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>33</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23">
         <v>0.47130489349365229</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.49982368946075439</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.51124298572540283</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>0.5183139443397522</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.54344218969345093</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>34</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24">
         <v>0.45251896977424622</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.47094634175300598</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.47120150923728937</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>0.46505904197692871</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.45971855521202087</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>35</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25">
         <v>0.47291487455368042</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>0.47993215918540949</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0.47721642255783081</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>0.48060658574104309</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>0.49210774898529053</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>37</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26">
         <v>0.40338236093521118</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>0.40944883227348328</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>0.41103872656822199</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>0.39996534585952759</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>0.4216560423374176</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>38</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27">
         <v>0.52480679750442505</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>0.52267426252365112</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>0.52590042352676392</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>0.52467918395996094</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>0.52693933248519897</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="C1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2122,547 +2396,626 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:F29"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
-      <c r="B2" s="8">
+      <c r="B2" s="14"/>
+      <c r="C2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="8">
+      <c r="D2" s="8">
         <v>2</v>
       </c>
-      <c r="D2" s="8">
-        <v>3</v>
-      </c>
       <c r="E2" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" s="8">
+        <v>4</v>
+      </c>
+      <c r="G2" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>0.32805153727531428</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.36280921101570129</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.35851565003395081</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.37589448690414429</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.3751007616519928</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
         <v>0.34815195202827448</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.36169654130935669</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.36740759015083307</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.37987354397773743</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.40591883659362787</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>0.49277016520500178</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.49590939283370972</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.47802510857582092</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.47050988674163818</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.45167425274848938</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>0.49800226092338562</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.5380517840385437</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.55536526441574097</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.57049089670181274</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.61586761474609375</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
         <v>0.53595888614654541</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.54775494337081909</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.5457572340965271</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.54832571744918823</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.55831426382064819</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>9</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
         <v>0.67194139957427979</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.6922614574432373</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.69933861494064331</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.70632064342498779</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.77149266004562378</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>11</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
         <v>0.54664057493209839</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.53258943557739258</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.52794963121414185</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.5</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.48901930451393127</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>13</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
         <v>0.56544899940490723</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.57324957847595215</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.58352363109588623</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.5658295750617981</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.5869482159614563</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>15</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
         <v>0.37909054756164551</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.3717656135559082</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.37804412841796881</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.38689115643501282</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.34531965851783752</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>16</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
         <v>0.67208904027938843</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.68531203269958496</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.67998480796813965</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.69644218683242798</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.72450530529022217</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>18</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
         <v>0.49353122711181641</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.50104647874832153</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.52806317806243896</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.5469939112663269</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.55536526441574097</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>19</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14">
         <v>0.36301368474960333</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.357401043176651</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.3664383590221405</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>0.38784247636795038</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.41419330239295959</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>20</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15">
         <v>0.35780432820320129</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.34121164679527283</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.35722553730010992</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.37536177039146418</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.35712909698486328</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>22</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16">
         <v>0.57115674018859863</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.57648402452468872</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.57971841096878052</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.60264462232589722</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.6005517840385437</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>25</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17">
         <v>0.37519022822380071</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.37452432513237</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.35683026909828192</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0.35302510857582092</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.3737633228302002</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>26</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18">
         <v>0.65144592523574829</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.64117199182510376</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.66790330410003662</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.67960423231124878</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.66543000936508179</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>29</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19">
         <v>0.58361876010894775</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.59674656391143799</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.61196732521057129</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.61891168355941772</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.64431124925613403</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>30</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
         <v>0.59465372562408447</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.57886224985122681</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.57753044366836548</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.55669713020324707</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.53947865962982178</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>31</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21">
         <v>0.7088090181350708</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.67827248573303223</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.68084090948104858</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.67713093757629395</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.68550223112106323</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>32</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22">
         <v>0.66493463516235352</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.65944564342498779</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.65841031074523926</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.65761387348175049</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.63517552614212036</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>33</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23">
         <v>0.49212834239006042</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.50184017419815063</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.50460028648376465</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>0.50817829370498657</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.53746986389160156</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>34</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24">
         <v>0.46546798944473272</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.4746955931186676</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.48306697607040411</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>0.47888126969337458</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.41733258962631231</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>35</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25">
         <v>0.47640791535377502</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>0.46632421016693121</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0.47460037469863892</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>0.49048703908920288</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>0.49495813250541693</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>37</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26">
         <v>0.38562935590744019</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>0.3955802321434021</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>0.40871971845626831</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>0.4172913134098053</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>0.43822693824768072</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="14" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>38</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27">
         <v>0.54062026739120483</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>0.53272449970245361</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>0.52178466320037842</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>0.52187973260879517</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>0.50799083709716797</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="C1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
